--- a/DP_DesignPattern.xlsx
+++ b/DP_DesignPattern.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="1824" yWindow="1608" windowWidth="16380" windowHeight="8076" tabRatio="922" activeTab="2"/>
+    <workbookView xWindow="1830" yWindow="1605" windowWidth="16380" windowHeight="8070" tabRatio="922" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="21" r:id="rId1"/>
@@ -16,17 +16,19 @@
     <sheet name="Object Ref Link" sheetId="16" r:id="rId7"/>
     <sheet name="Source Ref Link" sheetId="18" r:id="rId8"/>
     <sheet name="Java8" sheetId="24" r:id="rId9"/>
+    <sheet name="Patterns in Java" sheetId="25" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="__xlnm._FilterDatabase">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Design Pattern'!$B$1:$L$42</definedName>
+    <definedName name="OLE_LINK1" localSheetId="9">'Patterns in Java'!$A$1</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="546">
   <si>
     <t>Prototype</t>
   </si>
@@ -9179,13 +9181,6 @@
 @Inject is to invoke the produces</t>
   </si>
   <si>
-    <t xml:space="preserve">java.util.Calendar#getInstance()
-java.nio.charset.Charset#forName()
-Class classIns = Class.forName(className);
-classIns.newInstance();
-</t>
-  </si>
-  <si>
     <t>Abstract Factory is consits of more Factory. 
 Abstract Factory return another factory.</t>
   </si>
@@ -18598,12 +18593,2397 @@
         singleIns = Objects.requiredNotNull(supply.get()); }
      return singleIns; }</t>
   </si>
+  <si>
+    <t xml:space="preserve">Tree Structured / Hierarchical data representation. 
+3 Players of Composite Pattern;
+Component: Employee
+Composite : Lead, Manager
+Leaf : Developer
+</t>
+  </si>
+  <si>
+    <t>helps to change or configure by chaining with other similar subclasses of this object.
+'-- Wrapper
+-- Dynamically add behaviors and props
+-- Inheritance / composite
+-- Single Responsibility Principle</t>
+  </si>
+  <si>
+    <t>File file=new File("target","test.txt");
+FileOutputStream fos=new FileOutputStream(file);
+BufferedOutputStream bos=new BufferedOutputStream(fos);
+ObjectOutputStream oos=new ObjectOutputStream(bos);</t>
+  </si>
+  <si>
+    <t>javax.xml.parsers.DocumentBuilderFactory#newInstance()
+javax.xml.transform.TransformerFactory#newInstance()
+javax.xml.xpath.XPathFactory#newInstance()</t>
+  </si>
+  <si>
+    <t>java.util.Calendar#getInstance()
+java.nio.charset.Charset#forName()
+java.text.NumberFormat#getInstance()
+Class classIns = Class.forName(className);
+classIns.newInstance();</t>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Creational patterns</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Abstract factory </t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning the factory itself which in turn can be used to create another abstract/interface type</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.xml.parsers.DocumentBuilderFactory#newInstance()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.xml.transform.TransformerFactory#newInstance()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.xml.xpath.XPathFactory#newInstance()</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning the instance itself</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.StringBuilder#append() (unsynchronized)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.StringBuffer#append() (synchronized)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.nio.ByteBuffer#put() (also on CharBuffer, ShortBuffer, IntBuffer, LongBuffer, FloatBuffer and DoubleBuffer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.swing.GroupLayout.Group#addComponent()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.lang.Appendable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Factory method </t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning an implementation of an abstract/interface type</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Calendar#getInstance()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.ResourceBundle#getBundle()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.text.NumberFormat#getInstance()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.nio.charset.Charset#forName()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.net.URLStreamHandlerFactory#createURLStreamHandler(String) (Returns singleton object per protocol)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.EnumSet#of()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.xml.bind.JAXBContext#createMarshaller() and other similar methods</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Prototype </t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning a different instance of itself with the same properties</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.Object#clone() (the class has to implement java.lang.Cloneable)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Singleton </t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning the same instance (usually of itself) everytime</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.Runtime#getRuntime()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.awt.Desktop#getDesktop()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.System#getSecurityManager()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Adapter </t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods taking an instance of different abstract/interface type and returning an implementation of own/another abstract/interface type which decorates/overrides the given instance</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Arrays#asList()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Collections#list()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Collections#enumeration()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.io.InputStreamReader(InputStream) (returns a Reader)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.io.OutputStreamWriter(OutputStream) (returns a Writer)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.xml.bind.annotation.adapters.XmlAdapter#marshal() and #unmarshal()</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods taking an instance of different abstract/interface type and returning an implementation of own abstract/interface type which delegates/uses the given instance</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">LinkedHashMap(LinkedHashSet&lt;K&gt;, List&lt;V&gt;) which returns an unmodifiable linked map which doesn't clone the items, but uses them. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Collections#newSetFromMap() and singletonXXX() methods however comes close.</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods taking an instance of same abstract/interface type into a tree structure</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.awt.Container#add(Component) (practically all over Swing thus)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.component.UIComponent#getChildren() (practically all over JSF UI thus)</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods taking an instance of same abstract/interface type which adds additional behavior</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All subclasses of java.io.InputStream, OutputStream, Reader and Writer have a constructor taking an instance of same type.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Collections, the checkedXXX(), synchronizedXXX() and unmodifiableXXX() methods.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.http.HttpServletRequestWrapper and HttpServletResponseWrapper</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which internally uses instances of different independent abstract/interface types</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.context.FacesContext, it internally uses among others the abstract/interface types LifeCycle, ViewHandler, NavigationHandler and many more without that the enduser has to worry about it (which are however override able by injection).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.context.ExternalContext, which internally uses ServletContext, HttpSession, HttpServletRequest, HttpServletResponse, etc.</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by creational methods returning a cached instance, a bit the "multiton" idea</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.Integer#valueOf(int) (also on Boolean, Byte, Character, Short, Long and BigDecimal)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Proxy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Recognizable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> by creational methods which returns an implementation of given abstract/interface type which in turn delegates/uses a different implementation of given abstract/interface type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.reflect.Proxy</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.rmi.*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.ejb.EJB (explanation here)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.inject.Inject (explanation here)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.persistence.PersistenceContext</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Behavioral patterns</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which (indirectly) invokes the same method in another implementation of same abstract/interface type in a queue</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.logging.Logger#log()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.Filter#doFilter()</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods in an abstract/interface type which invokes a method in an implementation of a different abstract/interface type which has been encapsulated by the command implementation during its creation</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.lang.Runnable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of javax.swing.Action</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods returning a structurally different instance/type of the given instance/type; note that parsing/formatting is not part of the pattern, determining the pattern and how to apply it is.</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Pattern</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.text.Normalizer</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All subclasses of java.text.Format</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All subclasses of javax.el.ELResolver</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods sequentially returning instances of a different type from a queue</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.util.Iterator (thus among others also java.util.Scanner!).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.util.Enumeration</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods taking an instance of different abstract/interface type (usually using the command pattern) which delegates/uses the given instance</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Timer (all scheduleXXX() methods)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.concurrent.Executor#execute()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.concurrent.ExecutorService (the invokeXXX() and submit() methods)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.concurrent.ScheduledExecutorService (all scheduleXXX() methods)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.lang.reflect.Method#invoke()</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which internally changes the state of the whole instance</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Date (the setter methods do that, Date is internally represented by a long value)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.io.Serializable</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of javax.faces.component.StateHolder</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which invokes a method on an instance of another abstract/interface type, depending on own state</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Observer/java.util.Observable (rarely used in real world though)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All implementations of java.util.EventListener (practically all over Swing thus)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.http.HttpSessionBindingListener</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.http.HttpSessionAttributeListener</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.event.PhaseListener</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which changes its behavior depending on the instance's state which can be controlled externally</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.lifecycle.LifeCycle#execute() (controlled by FacesServlet, the behaviour is dependent on current phase (state) of JSF lifecycle)</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods in an abstract/interface type which invokes a method in an implementation of a different abstract/interface type which has been passed-in as method argument into the strategy implementation</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.util.Comparator#compare(), executed by among others Collections#sort().</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.http.HttpServlet, the service() and all doXXX() methods take HttpServletRequest and HttpServletResponse and the implementer has to process them (and not to get hold of them as instance variables!).</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by behavioral methods which already have a "default" behavior defined by an abstract type</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All non-abstract methods of java.io.InputStream, java.io.OutputStream, java.io.Reader and java.io.Writer.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>All non-abstract methods of java.util.AbstractList, java.util.AbstractSet and java.util.AbstractMap.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.servlet.http.HttpServlet, all the doXXX() methods by default sends a HTTP 405 "Method Not Allowed" error to the response. You're free to implement none or any of them.</t>
+    </r>
+  </si>
+  <si>
+    <t>Recognizable by two different abstract/interface types which has methods definied which takes each the other abstract/interface type; the one actually calls the method of the other and the other executes the desired strategy on it.</t>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.lang.model.element.AnnotationValue and AnnotationValueVisitor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.lang.model.element.Element and ElementVisitor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.lang.model.type.TypeMirror and TypeVisitor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>java.nio.file.FileVisitor and SimpleFileVisitor</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>§</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>javax.faces.component.visit.VisitContext and VisitCallback</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Builder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Bridge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Composite</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Decorator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Facade</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Flyweight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Chain of responsibility</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Command</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Interpreter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Mediator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Memento</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Observer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (or Publish/Subscribe) </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>State</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Strategy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Template</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> method </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>·</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visitor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="7"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Structural patterns</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="79" x14ac:knownFonts="1">
+  <fonts count="89" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -19110,6 +21490,62 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Wingdings"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Symbol"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -19149,7 +21585,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -19666,13 +22102,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -20118,12 +22569,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="85" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="12"/>
+    </xf>
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -21921,15 +24398,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>320040</xdr:colOff>
+          <xdr:colOff>323850</xdr:colOff>
           <xdr:row>0</xdr:row>
-          <xdr:rowOff>182880</xdr:rowOff>
+          <xdr:rowOff>180975</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>8732520</xdr:colOff>
+          <xdr:colOff>8734425</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>1584960</xdr:rowOff>
+          <xdr:rowOff>1581150</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -22338,17 +24815,17 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="22" customWidth="1"/>
-    <col min="2" max="2" width="34.44140625" style="23" customWidth="1"/>
-    <col min="3" max="3" width="39.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="53.6640625" style="24" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="22" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="53.7109375" style="24" customWidth="1"/>
     <col min="5" max="5" width="35" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="8.77734375" style="26"/>
+    <col min="6" max="16384" width="8.7109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B2" s="23" t="s">
         <v>228</v>
       </c>
@@ -22356,7 +24833,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="23" t="s">
         <v>228</v>
       </c>
@@ -22364,7 +24841,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="23" t="s">
         <v>228</v>
       </c>
@@ -22372,7 +24849,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>228</v>
       </c>
@@ -22380,7 +24857,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="22"/>
       <c r="B6" s="27" t="s">
         <v>233</v>
@@ -22391,7 +24868,7 @@
       <c r="D6" s="28"/>
       <c r="E6" s="29"/>
     </row>
-    <row r="7" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="22"/>
       <c r="B7" s="27" t="s">
         <v>233</v>
@@ -22402,7 +24879,7 @@
       <c r="D7" s="28"/>
       <c r="E7" s="29"/>
     </row>
-    <row r="8" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="22"/>
       <c r="B8" s="27" t="s">
         <v>233</v>
@@ -22413,7 +24890,7 @@
       <c r="D8" s="28"/>
       <c r="E8" s="29"/>
     </row>
-    <row r="9" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="22"/>
       <c r="B9" s="27" t="s">
         <v>233</v>
@@ -22424,7 +24901,7 @@
       <c r="D9" s="28"/>
       <c r="E9" s="29"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" s="23" t="s">
         <v>238</v>
       </c>
@@ -22432,7 +24909,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B11" s="23" t="s">
         <v>238</v>
       </c>
@@ -22440,7 +24917,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B12" s="23" t="s">
         <v>238</v>
       </c>
@@ -22448,7 +24925,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="22"/>
       <c r="B13" s="27" t="s">
         <v>242</v>
@@ -22459,7 +24936,7 @@
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="22"/>
       <c r="B14" s="27" t="s">
         <v>242</v>
@@ -22470,7 +24947,7 @@
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
     </row>
-    <row r="15" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="22"/>
       <c r="B15" s="27" t="s">
         <v>242</v>
@@ -22481,7 +24958,7 @@
       <c r="D15" s="28"/>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="22"/>
       <c r="B16" s="27" t="s">
         <v>242</v>
@@ -22492,7 +24969,7 @@
       <c r="D16" s="28"/>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="22"/>
       <c r="B17" s="27" t="s">
         <v>242</v>
@@ -22503,7 +24980,7 @@
       <c r="D17" s="28"/>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="22"/>
       <c r="B18" s="27" t="s">
         <v>242</v>
@@ -22514,7 +24991,7 @@
       <c r="D18" s="28"/>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="22"/>
       <c r="B19" s="27" t="s">
         <v>242</v>
@@ -22525,7 +25002,7 @@
       <c r="D19" s="28"/>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="23" t="s">
         <v>250</v>
       </c>
@@ -22533,7 +25010,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="23" t="s">
         <v>250</v>
       </c>
@@ -22541,7 +25018,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="22"/>
       <c r="B22" s="27" t="s">
         <v>253</v>
@@ -22552,7 +25029,7 @@
       <c r="D22" s="28"/>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22"/>
       <c r="B23" s="27" t="s">
         <v>253</v>
@@ -22563,7 +25040,7 @@
       <c r="D23" s="28"/>
       <c r="E23" s="29"/>
     </row>
-    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="22"/>
       <c r="B24" s="27" t="s">
         <v>253</v>
@@ -22574,7 +25051,7 @@
       <c r="D24" s="28"/>
       <c r="E24" s="29"/>
     </row>
-    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="22"/>
       <c r="B25" s="27" t="s">
         <v>253</v>
@@ -22585,7 +25062,7 @@
       <c r="D25" s="28"/>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="22"/>
       <c r="B26" s="27" t="s">
         <v>253</v>
@@ -22596,7 +25073,7 @@
       <c r="D26" s="28"/>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="22"/>
       <c r="B27" s="27" t="s">
         <v>253</v>
@@ -22607,7 +25084,7 @@
       <c r="D27" s="28"/>
       <c r="E27" s="29"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B28" s="23" t="s">
         <v>259</v>
       </c>
@@ -22615,7 +25092,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B29" s="23" t="s">
         <v>259</v>
       </c>
@@ -22623,7 +25100,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="22"/>
       <c r="B30" s="27" t="s">
         <v>262</v>
@@ -22636,7 +25113,7 @@
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" s="30" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="30" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="22"/>
       <c r="B31" s="27" t="s">
         <v>262</v>
@@ -22649,7 +25126,7 @@
       </c>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="22"/>
       <c r="B32" s="27" t="s">
         <v>262</v>
@@ -22660,7 +25137,7 @@
       <c r="D32" s="28"/>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22"/>
       <c r="B33" s="27" t="s">
         <v>262</v>
@@ -22671,7 +25148,7 @@
       <c r="D33" s="28"/>
       <c r="E33" s="29"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B34" s="23" t="s">
         <v>267</v>
       </c>
@@ -22682,7 +25159,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B35" s="23" t="s">
         <v>267</v>
       </c>
@@ -22693,7 +25170,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B36" s="23" t="s">
         <v>267</v>
       </c>
@@ -22703,6 +25180,719 @@
       <c r="D36" s="24" t="s">
         <v>273</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C149"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="154" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="154"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B2" s="155" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B3" s="156" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="157" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" s="158" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="158" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" s="158" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" s="159"/>
+    </row>
+    <row r="9" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="156" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="157" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" s="158" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" s="158" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="158" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" s="158" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" s="158" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" s="159"/>
+    </row>
+    <row r="17" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B17" s="156" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B18" s="157" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="158" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="158" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="158" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="158" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="158" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="158" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="158" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="159"/>
+    </row>
+    <row r="27" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B27" s="156" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B28" s="157" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="158" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B30" s="160"/>
+    </row>
+    <row r="31" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B31" s="156" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B32" s="157" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="158" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="158" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="158" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="159"/>
+    </row>
+    <row r="37" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B37" s="155" t="s">
+        <v>545</v>
+      </c>
+      <c r="C37" s="162"/>
+    </row>
+    <row r="38" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B38" s="156" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B39" s="157" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="158" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="158" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="158" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="158" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="158" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="158" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B46" s="160"/>
+    </row>
+    <row r="47" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B47" s="156" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="B48" s="157" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" s="158" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" s="158" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B51" s="160"/>
+    </row>
+    <row r="52" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B52" s="156" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B53" s="157" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" s="158" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" s="158" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B56" s="160"/>
+    </row>
+    <row r="57" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B57" s="156" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B58" s="157" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" s="158" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" s="158" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" s="158" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" s="159"/>
+    </row>
+    <row r="63" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B63" s="156" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B64" s="157" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" s="158" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" s="158" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B67" s="159"/>
+    </row>
+    <row r="68" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B68" s="156" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B69" s="157" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" s="158" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B71" s="159"/>
+    </row>
+    <row r="72" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B72" s="161" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B73" s="157" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" s="158" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" s="158" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" s="158" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" s="158" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" s="158" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" s="159"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" s="159"/>
+    </row>
+    <row r="81" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B81" s="155" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B82" s="156" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B83" s="157" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B84" s="158" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B85" s="158" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B86" s="159"/>
+    </row>
+    <row r="87" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B87" s="156" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B88" s="157" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B89" s="158" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B90" s="158" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B91" s="159"/>
+    </row>
+    <row r="92" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B92" s="156" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B93" s="157" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B94" s="158" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B95" s="158" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="158" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B97" s="158" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B98" s="159"/>
+    </row>
+    <row r="99" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B99" s="156" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B100" s="157" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B101" s="158" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B102" s="158" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B103" s="159"/>
+    </row>
+    <row r="104" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B104" s="156" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B105" s="157" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B106" s="158" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B107" s="158" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B108" s="158" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B109" s="158" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B110" s="158" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B111" s="159"/>
+    </row>
+    <row r="112" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B112" s="156" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B113" s="157" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B114" s="158" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B115" s="158" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B116" s="158" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B117" s="159"/>
+    </row>
+    <row r="118" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B118" s="156" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B119" s="157" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B120" s="158" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B121" s="158" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B122" s="158" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B123" s="158" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B124" s="158" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B125" s="159"/>
+    </row>
+    <row r="126" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B126" s="156" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B127" s="157" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B128" s="158" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B129" s="159"/>
+    </row>
+    <row r="130" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B130" s="156" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B131" s="157" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B132" s="158" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B133" s="158" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B134" s="158" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B135" s="159"/>
+    </row>
+    <row r="136" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B136" s="156" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B137" s="157" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B138" s="158" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B139" s="158" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B140" s="158" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B141" s="159"/>
+    </row>
+    <row r="142" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B142" s="156" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="B143" s="157" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B144" s="158" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B145" s="158" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B146" s="158" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B147" s="158" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B148" s="158" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B149" s="159"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22716,33 +25906,33 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="H56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="43.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.21875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="71.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="71.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="43" style="1" customWidth="1"/>
-    <col min="10" max="10" width="110.77734375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="78.21875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="71.44140625" style="21" customWidth="1"/>
-    <col min="13" max="13" width="73.21875" style="21" customWidth="1"/>
-    <col min="14" max="14" width="67.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="91.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.21875" style="1"/>
+    <col min="10" max="10" width="110.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="78.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="71.42578125" style="21" customWidth="1"/>
+    <col min="13" max="13" width="73.28515625" style="21" customWidth="1"/>
+    <col min="14" max="14" width="67.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="91.5703125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
@@ -22778,7 +25968,7 @@
       </c>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="352.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="369.75" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -22797,7 +25987,7 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:15" ht="189" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="191.25" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
@@ -22820,7 +26010,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="20"/>
     </row>
-    <row r="4" spans="1:15" ht="232.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
@@ -22843,7 +26033,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="20"/>
     </row>
-    <row r="5" spans="1:15" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="5" t="s">
         <v>78</v>
       </c>
@@ -22866,7 +26056,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="20"/>
     </row>
-    <row r="6" spans="1:15" ht="165.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="165.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="5" t="s">
         <v>176</v>
       </c>
@@ -22891,11 +26081,11 @@
       <c r="K6" s="4"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="151" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B7" s="152" t="s">
         <v>220</v>
       </c>
-      <c r="C7" s="152"/>
+      <c r="C7" s="153"/>
       <c r="D7" s="4" t="s">
         <v>221</v>
       </c>
@@ -22908,11 +26098,11 @@
       <c r="K7" s="4"/>
       <c r="L7" s="20"/>
     </row>
-    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="151" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B8" s="152" t="s">
         <v>222</v>
       </c>
-      <c r="C8" s="152"/>
+      <c r="C8" s="153"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
@@ -22923,11 +26113,11 @@
       <c r="K8" s="4"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="151" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B9" s="152" t="s">
         <v>223</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="153"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -22938,11 +26128,11 @@
       <c r="K9" s="4"/>
       <c r="L9" s="20"/>
     </row>
-    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="151" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="152" t="s">
         <v>224</v>
       </c>
-      <c r="C10" s="152"/>
+      <c r="C10" s="153"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -22953,11 +26143,11 @@
       <c r="K10" s="4"/>
       <c r="L10" s="20"/>
     </row>
-    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="151" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B11" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="C11" s="152"/>
+      <c r="C11" s="153"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -22968,11 +26158,11 @@
       <c r="K11" s="4"/>
       <c r="L11" s="20"/>
     </row>
-    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="151" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B12" s="152" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="152"/>
+      <c r="C12" s="153"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -22983,11 +26173,11 @@
       <c r="K12" s="4"/>
       <c r="L12" s="20"/>
     </row>
-    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="151" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B13" s="152" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="152"/>
+      <c r="C13" s="153"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -22998,7 +26188,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="20"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="246.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="96" t="s">
         <v>111</v>
       </c>
@@ -23028,7 +26218,7 @@
       <c r="N14" s="96"/>
       <c r="O14" s="96"/>
     </row>
-    <row r="15" spans="1:15" s="8" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="B15" s="99" t="s">
         <v>15</v>
       </c>
@@ -23060,7 +26250,7 @@
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
     </row>
-    <row r="16" spans="1:15" s="8" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" s="8" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="B16" s="99" t="s">
         <v>29</v>
@@ -23093,7 +26283,7 @@
       <c r="N16" s="102"/>
       <c r="O16" s="102"/>
     </row>
-    <row r="17" spans="1:15" s="8" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" s="8" customFormat="1" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="99" t="s">
         <v>137</v>
@@ -23122,7 +26312,7 @@
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
     </row>
-    <row r="18" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
       <c r="B18" s="99" t="s">
         <v>50</v>
@@ -23153,7 +26343,7 @@
       <c r="N18" s="102"/>
       <c r="O18" s="102"/>
     </row>
-    <row r="19" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
       <c r="B19" s="99" t="s">
         <v>117</v>
@@ -23162,7 +26352,7 @@
         <v>7</v>
       </c>
       <c r="D19" s="99" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E19" s="99" t="s">
         <v>120</v>
@@ -23184,7 +26374,7 @@
       <c r="N19" s="102"/>
       <c r="O19" s="102"/>
     </row>
-    <row r="20" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1"/>
       <c r="B20" s="99" t="s">
         <v>128</v>
@@ -23209,7 +26399,7 @@
       <c r="N20" s="102"/>
       <c r="O20" s="102"/>
     </row>
-    <row r="21" spans="1:15" s="8" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="8" customFormat="1" ht="303" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="99" t="s">
         <v>17</v>
       </c>
@@ -23237,7 +26427,7 @@
       <c r="N21" s="102"/>
       <c r="O21" s="102"/>
     </row>
-    <row r="22" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" s="8" customFormat="1" ht="222.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="99" t="s">
         <v>130</v>
@@ -23258,7 +26448,7 @@
       <c r="N22" s="102"/>
       <c r="O22" s="102"/>
     </row>
-    <row r="23" spans="1:15" s="8" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="8" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="96" t="s">
         <v>11</v>
@@ -23270,7 +26460,7 @@
         <v>39</v>
       </c>
       <c r="E23" s="96" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F23" s="96" t="s">
         <v>43</v>
@@ -23293,7 +26483,7 @@
       <c r="N23" s="102"/>
       <c r="O23" s="102"/>
     </row>
-    <row r="24" spans="1:15" s="8" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" s="8" customFormat="1" ht="182.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="99" t="s">
         <v>30</v>
@@ -23320,7 +26510,7 @@
       <c r="N24" s="102"/>
       <c r="O24" s="102"/>
     </row>
-    <row r="25" spans="1:15" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="99" t="s">
         <v>129</v>
@@ -23341,7 +26531,7 @@
       <c r="N25" s="102"/>
       <c r="O25" s="102"/>
     </row>
-    <row r="26" spans="1:15" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="99" t="s">
         <v>32</v>
@@ -23362,7 +26552,7 @@
       <c r="N26" s="102"/>
       <c r="O26" s="102"/>
     </row>
-    <row r="27" spans="1:15" s="8" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" s="8" customFormat="1" ht="204" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="99" t="s">
         <v>33</v>
@@ -23385,7 +26575,7 @@
       <c r="N27" s="102"/>
       <c r="O27" s="102"/>
     </row>
-    <row r="28" spans="1:15" s="8" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" s="8" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="99" t="s">
         <v>34</v>
@@ -23408,7 +26598,7 @@
       <c r="N28" s="102"/>
       <c r="O28" s="102"/>
     </row>
-    <row r="29" spans="1:15" s="8" customFormat="1" ht="68.400000000000006" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" s="8" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="99" t="s">
         <v>73</v>
@@ -23441,7 +26631,7 @@
       <c r="N29" s="102"/>
       <c r="O29" s="102"/>
     </row>
-    <row r="30" spans="1:15" s="8" customFormat="1" ht="296.39999999999998" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" s="8" customFormat="1" ht="303.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="99" t="s">
         <v>74</v>
@@ -23467,14 +26657,14 @@
       <c r="I30" s="99"/>
       <c r="J30" s="99"/>
       <c r="K30" s="106" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="L30" s="101"/>
       <c r="M30" s="101"/>
       <c r="N30" s="102"/>
       <c r="O30" s="102"/>
     </row>
-    <row r="31" spans="1:15" s="8" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="8" customFormat="1" ht="230.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="99" t="s">
         <v>80</v>
@@ -23504,7 +26694,7 @@
         <v>100</v>
       </c>
       <c r="K31" s="99" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L31" s="107" t="s">
         <v>143</v>
@@ -23513,7 +26703,7 @@
       <c r="N31" s="102"/>
       <c r="O31" s="102"/>
     </row>
-    <row r="32" spans="1:15" s="8" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" s="8" customFormat="1" ht="235.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="99" t="s">
         <v>0</v>
@@ -23532,7 +26722,7 @@
       </c>
       <c r="G32" s="99"/>
       <c r="H32" s="135" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I32" s="99" t="s">
         <v>104</v>
@@ -23544,7 +26734,7 @@
       <c r="N32" s="102"/>
       <c r="O32" s="102"/>
     </row>
-    <row r="33" spans="1:15" s="8" customFormat="1" ht="114" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="99" t="s">
         <v>81</v>
@@ -23571,7 +26761,7 @@
       <c r="N33" s="102"/>
       <c r="O33" s="102"/>
     </row>
-    <row r="34" spans="1:15" s="8" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="8" customFormat="1" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="99" t="s">
         <v>102</v>
@@ -23592,7 +26782,7 @@
         <v>107</v>
       </c>
       <c r="H34" s="99" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I34" s="99"/>
       <c r="J34" s="99"/>
@@ -23602,7 +26792,7 @@
       <c r="N34" s="102"/>
       <c r="O34" s="102"/>
     </row>
-    <row r="35" spans="1:15" s="8" customFormat="1" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="8" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
       <c r="A35" s="1"/>
       <c r="B35" s="99" t="s">
         <v>31</v>
@@ -23625,7 +26815,7 @@
       <c r="N35" s="102"/>
       <c r="O35" s="102"/>
     </row>
-    <row r="36" spans="1:15" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1"/>
       <c r="B36" s="99" t="s">
         <v>136</v>
@@ -23646,7 +26836,7 @@
       <c r="N36" s="102"/>
       <c r="O36" s="102"/>
     </row>
-    <row r="37" spans="1:15" s="8" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="8" customFormat="1" ht="291.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
       <c r="B37" s="99" t="s">
         <v>135</v>
@@ -23666,20 +26856,20 @@
       </c>
       <c r="H37" s="99"/>
       <c r="I37" s="99" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J37" s="99"/>
       <c r="K37" s="99"/>
       <c r="L37" s="108" t="s">
+        <v>357</v>
+      </c>
+      <c r="M37" s="108" t="s">
         <v>358</v>
-      </c>
-      <c r="M37" s="108" t="s">
-        <v>359</v>
       </c>
       <c r="N37" s="102"/>
       <c r="O37" s="102"/>
     </row>
-    <row r="38" spans="1:15" s="8" customFormat="1" ht="79.8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="8" customFormat="1" ht="101.25" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="99" t="s">
         <v>12</v>
@@ -23708,7 +26898,7 @@
       <c r="N38" s="102"/>
       <c r="O38" s="102"/>
     </row>
-    <row r="39" spans="1:15" s="8" customFormat="1" ht="91.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="8" customFormat="1" ht="112.5" x14ac:dyDescent="0.2">
       <c r="A39" s="1"/>
       <c r="B39" s="99" t="s">
         <v>18</v>
@@ -23727,7 +26917,7 @@
       </c>
       <c r="G39" s="99"/>
       <c r="H39" s="109" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I39" s="99" t="s">
         <v>21</v>
@@ -23739,7 +26929,7 @@
       <c r="N39" s="102"/>
       <c r="O39" s="102"/>
     </row>
-    <row r="40" spans="1:15" s="8" customFormat="1" ht="148.19999999999999" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="8" customFormat="1" ht="157.5" x14ac:dyDescent="0.2">
       <c r="A40" s="1"/>
       <c r="B40" s="99" t="s">
         <v>22</v>
@@ -23764,7 +26954,7 @@
       <c r="N40" s="102"/>
       <c r="O40" s="102"/>
     </row>
-    <row r="41" spans="1:15" s="8" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="8" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A41" s="1"/>
       <c r="B41" s="99" t="s">
         <v>24</v>
@@ -23789,7 +26979,7 @@
       <c r="N41" s="102"/>
       <c r="O41" s="102"/>
     </row>
-    <row r="42" spans="1:15" s="8" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="8" customFormat="1" ht="223.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1"/>
       <c r="B42" s="99" t="s">
         <v>27</v>
@@ -23822,7 +27012,7 @@
       <c r="N42" s="102"/>
       <c r="O42" s="102"/>
     </row>
-    <row r="43" spans="1:15" ht="239.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="247.5" x14ac:dyDescent="0.2">
       <c r="B43" s="99" t="s">
         <v>156</v>
       </c>
@@ -23852,7 +27042,7 @@
       <c r="N43" s="99"/>
       <c r="O43" s="99"/>
     </row>
-    <row r="44" spans="1:15" ht="205.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="99" t="s">
         <v>162</v>
       </c>
@@ -23878,7 +27068,7 @@
         <v>166</v>
       </c>
       <c r="J44" s="106" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K44" s="99" t="s">
         <v>169</v>
@@ -23890,7 +27080,7 @@
       <c r="N44" s="99"/>
       <c r="O44" s="99"/>
     </row>
-    <row r="45" spans="1:15" ht="298.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="298.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="99" t="s">
         <v>170</v>
       </c>
@@ -23898,20 +27088,20 @@
         <v>78</v>
       </c>
       <c r="D45" s="99" t="s">
+        <v>361</v>
+      </c>
+      <c r="E45" s="99" t="s">
         <v>362</v>
       </c>
-      <c r="E45" s="99" t="s">
+      <c r="F45" s="99" t="s">
         <v>363</v>
-      </c>
-      <c r="F45" s="99" t="s">
-        <v>364</v>
       </c>
       <c r="G45" s="99" t="s">
         <v>171</v>
       </c>
       <c r="H45" s="99"/>
       <c r="I45" s="99" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="J45" s="99"/>
       <c r="K45" s="99"/>
@@ -23920,7 +27110,7 @@
       <c r="N45" s="99"/>
       <c r="O45" s="99"/>
     </row>
-    <row r="46" spans="1:15" ht="274.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="274.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="99" t="s">
         <v>182</v>
       </c>
@@ -23928,10 +27118,10 @@
         <v>183</v>
       </c>
       <c r="D46" s="99" t="s">
+        <v>365</v>
+      </c>
+      <c r="E46" s="99" t="s">
         <v>366</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>367</v>
       </c>
       <c r="F46" s="99" t="s">
         <v>185</v>
@@ -23941,20 +27131,20 @@
       </c>
       <c r="H46" s="99"/>
       <c r="I46" s="99" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="J46" s="99"/>
       <c r="K46" s="99" t="s">
         <v>187</v>
       </c>
       <c r="L46" s="111" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="M46" s="110"/>
       <c r="N46" s="99"/>
       <c r="O46" s="99"/>
     </row>
-    <row r="47" spans="1:15" ht="102.6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="101.25" x14ac:dyDescent="0.2">
       <c r="B47" s="99" t="s">
         <v>189</v>
       </c>
@@ -23978,7 +27168,7 @@
       <c r="N47" s="99"/>
       <c r="O47" s="99"/>
     </row>
-    <row r="48" spans="1:15" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="285.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="99" t="s">
         <v>193</v>
       </c>
@@ -24004,7 +27194,7 @@
       <c r="N48" s="99"/>
       <c r="O48" s="99"/>
     </row>
-    <row r="49" spans="2:15" ht="189" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:15" ht="189" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="99"/>
       <c r="C49" s="99" t="s">
         <v>276</v>
@@ -24014,7 +27204,7 @@
       <c r="F49" s="99"/>
       <c r="G49" s="99"/>
       <c r="H49" s="112" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I49" s="99"/>
       <c r="J49" s="99"/>
@@ -24024,7 +27214,7 @@
       <c r="N49" s="99"/>
       <c r="O49" s="99"/>
     </row>
-    <row r="50" spans="2:15" ht="200.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:15" ht="200.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="99"/>
       <c r="C50" s="99" t="s">
         <v>277</v>
@@ -24040,7 +27230,7 @@
       </c>
       <c r="G50" s="99"/>
       <c r="H50" s="113" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I50" s="99"/>
       <c r="J50" s="99"/>
@@ -24082,24 +27272,24 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.21875" style="52" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.77734375" style="35" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="64.5546875" style="32" customWidth="1"/>
-    <col min="6" max="6" width="57.21875" style="33" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="31" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="31"/>
+    <col min="1" max="1" width="2.28515625" style="52" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="35" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="35" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.5703125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="55.140625" style="31" customWidth="1"/>
+    <col min="8" max="8" width="40.42578125" style="31" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="55" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="55" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="52"/>
       <c r="B1" s="71"/>
       <c r="C1" s="71"/>
@@ -24110,7 +27300,7 @@
       <c r="J1" s="56"/>
       <c r="K1" s="56"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
       <c r="C2" s="66"/>
       <c r="D2" s="60"/>
@@ -24118,7 +27308,7 @@
       <c r="F2" s="37"/>
       <c r="G2" s="38"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="64" t="s">
         <v>326</v>
       </c>
@@ -24134,7 +27324,7 @@
       </c>
       <c r="G3" s="41"/>
     </row>
-    <row r="4" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="64" t="s">
         <v>326</v>
       </c>
@@ -24148,7 +27338,7 @@
       <c r="F4" s="40"/>
       <c r="G4" s="41"/>
     </row>
-    <row r="5" spans="1:11" ht="40.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="64" t="s">
         <v>326</v>
       </c>
@@ -24162,7 +27352,7 @@
       <c r="F5" s="40"/>
       <c r="G5" s="41"/>
     </row>
-    <row r="6" spans="1:11" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="64"/>
       <c r="C6" s="67"/>
       <c r="D6" s="61"/>
@@ -24172,7 +27362,7 @@
       </c>
       <c r="G6" s="41"/>
     </row>
-    <row r="7" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="78.599999999999994" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="64"/>
       <c r="C7" s="67"/>
       <c r="D7" s="61"/>
@@ -24182,7 +27372,7 @@
       </c>
       <c r="G7" s="41"/>
     </row>
-    <row r="8" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="64"/>
       <c r="C8" s="67"/>
       <c r="D8" s="61"/>
@@ -24192,7 +27382,7 @@
       </c>
       <c r="G8" s="41"/>
     </row>
-    <row r="9" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="65"/>
       <c r="C9" s="68"/>
       <c r="D9" s="62"/>
@@ -24200,7 +27390,7 @@
       <c r="F9" s="44"/>
       <c r="G9" s="45"/>
     </row>
-    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="71"/>
       <c r="C10" s="71"/>
@@ -24211,7 +27401,7 @@
       <c r="J10" s="56"/>
       <c r="K10" s="56"/>
     </row>
-    <row r="11" spans="1:11" s="55" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" s="55" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
       <c r="B11" s="71"/>
       <c r="C11" s="71"/>
@@ -24222,7 +27412,7 @@
       <c r="J11" s="56"/>
       <c r="K11" s="56"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="72"/>
       <c r="C12" s="73"/>
       <c r="D12" s="60"/>
@@ -24230,7 +27420,7 @@
       <c r="F12" s="37"/>
       <c r="G12" s="38"/>
     </row>
-    <row r="13" spans="1:11" ht="76.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="76.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="74" t="s">
         <v>324</v>
       </c>
@@ -24246,7 +27436,7 @@
       <c r="F13" s="42"/>
       <c r="G13" s="41"/>
     </row>
-    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="B14" s="74" t="s">
         <v>324</v>
       </c>
@@ -24262,7 +27452,7 @@
       </c>
       <c r="G14" s="41"/>
     </row>
-    <row r="15" spans="1:11" ht="72" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="78.75" x14ac:dyDescent="0.2">
       <c r="B15" s="74" t="s">
         <v>324</v>
       </c>
@@ -24273,16 +27463,16 @@
         <v>308</v>
       </c>
       <c r="E15" s="39" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="42" t="s">
         <v>339</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>340</v>
-      </c>
       <c r="G15" s="88" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B16" s="74" t="s">
         <v>324</v>
       </c>
@@ -24290,22 +27480,22 @@
         <v>328</v>
       </c>
       <c r="D16" s="76" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="39" t="s">
         <v>334</v>
       </c>
-      <c r="E16" s="39" t="s">
+      <c r="F16" s="33" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="42" t="s">
         <v>335</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="42" t="s">
+      <c r="H16" s="88" t="s">
         <v>336</v>
       </c>
-      <c r="H16" s="88" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="74" t="s">
         <v>324</v>
       </c>
@@ -24321,7 +27511,7 @@
       <c r="F17" s="42"/>
       <c r="G17" s="41"/>
     </row>
-    <row r="18" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="B18" s="74" t="s">
         <v>324</v>
       </c>
@@ -24332,14 +27522,16 @@
         <v>74</v>
       </c>
       <c r="E18" s="70" t="s">
+        <v>331</v>
+      </c>
+      <c r="F18" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>333</v>
-      </c>
-      <c r="G18" s="41"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="88" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="74" t="s">
         <v>324</v>
       </c>
@@ -24353,27 +27545,40 @@
       </c>
       <c r="G19" s="41"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="74" t="s">
         <v>324</v>
       </c>
       <c r="C20" s="77"/>
+      <c r="D20" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>419</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>420</v>
+      </c>
       <c r="G20" s="41"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="74" t="s">
         <v>324</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="39"/>
+      <c r="D21" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>418</v>
+      </c>
       <c r="F21" s="40"/>
       <c r="G21" s="41"/>
       <c r="I21" s="34"/>
       <c r="J21" s="34"/>
       <c r="K21" s="34"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B22" s="74" t="s">
         <v>324</v>
       </c>
@@ -24386,7 +27591,7 @@
       <c r="J22" s="34"/>
       <c r="K22" s="34"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B23" s="74" t="s">
         <v>324</v>
       </c>
@@ -24399,7 +27604,7 @@
       <c r="J23" s="34"/>
       <c r="K23" s="34"/>
     </row>
-    <row r="24" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="78"/>
       <c r="C24" s="79"/>
       <c r="D24" s="62"/>
@@ -24410,7 +27615,7 @@
       <c r="J24" s="34"/>
       <c r="K24" s="34"/>
     </row>
-    <row r="25" spans="1:11" s="55" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" s="55" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -24421,7 +27626,7 @@
       <c r="J25" s="56"/>
       <c r="K25" s="56"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B26" s="80"/>
       <c r="C26" s="81"/>
       <c r="D26" s="36"/>
@@ -24432,7 +27637,7 @@
       <c r="J26" s="34"/>
       <c r="K26" s="34"/>
     </row>
-    <row r="27" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="B27" s="82" t="s">
         <v>323</v>
       </c>
@@ -24449,7 +27654,7 @@
       <c r="J27" s="34"/>
       <c r="K27" s="34"/>
     </row>
-    <row r="28" spans="1:11" ht="36" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="36" x14ac:dyDescent="0.2">
       <c r="B28" s="82" t="s">
         <v>323</v>
       </c>
@@ -24466,7 +27671,7 @@
       <c r="J28" s="34"/>
       <c r="K28" s="34"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="B29" s="82" t="s">
         <v>323</v>
       </c>
@@ -24483,7 +27688,7 @@
       <c r="J29" s="34"/>
       <c r="K29" s="34"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B30" s="82" t="s">
         <v>323</v>
       </c>
@@ -24498,7 +27703,7 @@
       <c r="J30" s="34"/>
       <c r="K30" s="34"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B31" s="82" t="s">
         <v>323</v>
       </c>
@@ -24511,7 +27716,7 @@
       <c r="J31" s="34"/>
       <c r="K31" s="34"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B32" s="82" t="s">
         <v>323</v>
       </c>
@@ -24524,7 +27729,7 @@
       <c r="J32" s="34"/>
       <c r="K32" s="34"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="82" t="s">
         <v>323</v>
       </c>
@@ -24535,7 +27740,7 @@
       <c r="G33" s="46"/>
       <c r="H33" s="34"/>
     </row>
-    <row r="34" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="85"/>
       <c r="C34" s="86"/>
       <c r="D34" s="43"/>
@@ -24544,7 +27749,7 @@
       <c r="G34" s="47"/>
       <c r="H34" s="34"/>
     </row>
-    <row r="35" spans="1:11" s="50" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" s="50" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="52"/>
       <c r="B35" s="87"/>
       <c r="C35" s="87"/>
@@ -24555,7 +27760,7 @@
       <c r="J35" s="51"/>
       <c r="K35" s="51"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B36" s="80"/>
       <c r="C36" s="81"/>
       <c r="D36" s="36"/>
@@ -24564,7 +27769,7 @@
       <c r="G36" s="57"/>
       <c r="H36" s="34"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B37" s="82" t="s">
         <v>325</v>
       </c>
@@ -24575,7 +27780,7 @@
       <c r="G37" s="46"/>
       <c r="H37" s="34"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B38" s="82" t="s">
         <v>325</v>
       </c>
@@ -24590,7 +27795,7 @@
       <c r="G38" s="46"/>
       <c r="H38" s="34"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B39" s="82" t="s">
         <v>325</v>
       </c>
@@ -24605,7 +27810,7 @@
       <c r="G39" s="46"/>
       <c r="H39" s="34"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="21" x14ac:dyDescent="0.2">
       <c r="B40" s="82" t="s">
         <v>325</v>
       </c>
@@ -24620,7 +27825,7 @@
       <c r="G40" s="46"/>
       <c r="H40" s="34"/>
     </row>
-    <row r="41" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="82" t="s">
         <v>325</v>
       </c>
@@ -24637,7 +27842,7 @@
       <c r="G41" s="46"/>
       <c r="H41" s="34"/>
     </row>
-    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="24" x14ac:dyDescent="0.2">
       <c r="B42" s="82" t="s">
         <v>325</v>
       </c>
@@ -24654,7 +27859,7 @@
       <c r="G42" s="46"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="58"/>
       <c r="C43" s="69"/>
       <c r="D43" s="43"/>
@@ -24663,7 +27868,7 @@
       <c r="G43" s="47"/>
       <c r="H43" s="34"/>
     </row>
-    <row r="44" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="52"/>
       <c r="B44" s="71"/>
       <c r="C44" s="71"/>
@@ -24674,7 +27879,7 @@
       <c r="J44" s="56"/>
       <c r="K44" s="56"/>
     </row>
-    <row r="45" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="52"/>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -24685,7 +27890,7 @@
       <c r="J45" s="56"/>
       <c r="K45" s="56"/>
     </row>
-    <row r="46" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="52"/>
       <c r="B46" s="71"/>
       <c r="C46" s="71"/>
@@ -24696,7 +27901,7 @@
       <c r="J46" s="56"/>
       <c r="K46" s="56"/>
     </row>
-    <row r="47" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="52"/>
       <c r="B47" s="71"/>
       <c r="C47" s="71"/>
@@ -24707,7 +27912,7 @@
       <c r="J47" s="56"/>
       <c r="K47" s="56"/>
     </row>
-    <row r="48" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="52"/>
       <c r="B48" s="71"/>
       <c r="C48" s="71"/>
@@ -24718,7 +27923,7 @@
       <c r="J48" s="56"/>
       <c r="K48" s="56"/>
     </row>
-    <row r="49" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" s="55" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="52"/>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -24746,25 +27951,25 @@
       <selection activeCell="A2" sqref="A2:XFD8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.109375" style="121" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="117" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.21875" style="116" customWidth="1"/>
-    <col min="4" max="5" width="53.44140625" style="123" customWidth="1"/>
-    <col min="6" max="6" width="47.21875" style="123" customWidth="1"/>
-    <col min="7" max="7" width="48.6640625" style="123" customWidth="1"/>
-    <col min="8" max="8" width="45.88671875" style="123" customWidth="1"/>
-    <col min="9" max="9" width="45.77734375" style="123" customWidth="1"/>
-    <col min="10" max="10" width="42.21875" style="123" customWidth="1"/>
-    <col min="11" max="11" width="42.44140625" style="123" customWidth="1"/>
-    <col min="12" max="16384" width="8.88671875" style="123"/>
+    <col min="1" max="1" width="3.140625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="117" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" style="116" customWidth="1"/>
+    <col min="4" max="5" width="53.42578125" style="123" customWidth="1"/>
+    <col min="6" max="6" width="47.28515625" style="123" customWidth="1"/>
+    <col min="7" max="7" width="48.7109375" style="123" customWidth="1"/>
+    <col min="8" max="8" width="45.85546875" style="123" customWidth="1"/>
+    <col min="9" max="9" width="45.7109375" style="123" customWidth="1"/>
+    <col min="10" max="10" width="42.28515625" style="123" customWidth="1"/>
+    <col min="11" max="11" width="42.42578125" style="123" customWidth="1"/>
+    <col min="12" max="16384" width="8.85546875" style="123"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="117"/>
     </row>
-    <row r="2" spans="1:12" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B2" s="118"/>
       <c r="C2" s="119"/>
       <c r="D2" s="119"/>
@@ -24776,80 +27981,80 @@
       <c r="J2" s="119"/>
       <c r="K2" s="120"/>
     </row>
-    <row r="3" spans="1:12" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A3" s="91"/>
       <c r="B3" s="92"/>
       <c r="D3" s="89" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E3" s="89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F3" s="89" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G3" s="89" t="s">
+        <v>342</v>
+      </c>
+      <c r="H3" s="89" t="s">
         <v>343</v>
       </c>
-      <c r="H3" s="89" t="s">
-        <v>344</v>
-      </c>
       <c r="I3" s="89" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J3" s="89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K3" s="94"/>
       <c r="L3" s="143"/>
     </row>
-    <row r="4" spans="1:12" ht="106.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="106.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="93" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="70" t="s">
+        <v>340</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>348</v>
+      </c>
+      <c r="E4" s="144" t="s">
+        <v>378</v>
+      </c>
+      <c r="F4" s="90" t="s">
         <v>341</v>
       </c>
-      <c r="D4" s="90" t="s">
-        <v>349</v>
-      </c>
-      <c r="E4" s="144" t="s">
-        <v>379</v>
-      </c>
-      <c r="F4" s="90" t="s">
-        <v>342</v>
-      </c>
       <c r="G4" s="90" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H4" s="90" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I4" s="90" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J4" s="90" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K4" s="115"/>
     </row>
-    <row r="5" spans="1:12" s="116" customFormat="1" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="116" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="B5" s="124"/>
       <c r="C5" s="125" t="s">
+        <v>350</v>
+      </c>
+      <c r="F5" s="95" t="s">
         <v>351</v>
-      </c>
-      <c r="F5" s="95" t="s">
-        <v>352</v>
       </c>
       <c r="G5" s="95"/>
       <c r="H5" s="95"/>
       <c r="I5" s="95"/>
       <c r="K5" s="126"/>
     </row>
-    <row r="6" spans="1:12" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B6" s="124"/>
       <c r="C6" s="125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F6" s="95"/>
       <c r="G6" s="95"/>
@@ -24857,14 +28062,14 @@
       <c r="I6" s="95"/>
       <c r="K6" s="126"/>
     </row>
-    <row r="7" spans="1:12" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="116" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B7" s="137"/>
       <c r="C7" s="138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D7" s="145"/>
       <c r="F7" s="140" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G7" s="140"/>
       <c r="H7" s="140"/>
@@ -24872,7 +28077,7 @@
       <c r="J7" s="140"/>
       <c r="K7" s="141"/>
     </row>
-    <row r="8" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="127"/>
       <c r="C8" s="128"/>
       <c r="D8" s="128"/>
@@ -24884,7 +28089,7 @@
       <c r="J8" s="128"/>
       <c r="K8" s="129"/>
     </row>
-    <row r="9" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="146"/>
       <c r="C9" s="145"/>
       <c r="D9" s="145"/>
@@ -24896,7 +28101,7 @@
       <c r="J9" s="145"/>
       <c r="K9" s="145"/>
     </row>
-    <row r="10" spans="1:12" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B10" s="118"/>
       <c r="C10" s="119"/>
       <c r="D10" s="119"/>
@@ -24908,17 +28113,17 @@
       <c r="J10" s="145"/>
       <c r="K10" s="145"/>
     </row>
-    <row r="11" spans="1:12" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B11" s="147"/>
       <c r="C11" s="148"/>
       <c r="D11" s="149" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E11" s="149" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" s="150" t="s">
         <v>411</v>
-      </c>
-      <c r="F11" s="150" t="s">
-        <v>412</v>
       </c>
       <c r="G11" s="145"/>
       <c r="H11" s="145"/>
@@ -24926,18 +28131,18 @@
       <c r="J11" s="145"/>
       <c r="K11" s="145"/>
     </row>
-    <row r="12" spans="1:12" s="116" customFormat="1" ht="102.6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" s="116" customFormat="1" ht="146.25" x14ac:dyDescent="0.2">
       <c r="B12" s="124" t="s">
         <v>81</v>
       </c>
       <c r="C12" s="95" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D12" s="90" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E12" s="95" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F12" s="126"/>
       <c r="G12" s="145"/>
@@ -24946,16 +28151,16 @@
       <c r="J12" s="145"/>
       <c r="K12" s="145"/>
     </row>
-    <row r="13" spans="1:12" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="116" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B13" s="124"/>
       <c r="C13" s="125" t="s">
+        <v>413</v>
+      </c>
+      <c r="D13" s="95" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="95" t="s">
+      <c r="E13" s="95" t="s">
         <v>415</v>
-      </c>
-      <c r="E13" s="95" t="s">
-        <v>416</v>
       </c>
       <c r="F13" s="126"/>
       <c r="G13" s="145"/>
@@ -24964,7 +28169,7 @@
       <c r="J13" s="145"/>
       <c r="K13" s="145"/>
     </row>
-    <row r="14" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="127"/>
       <c r="C14" s="128"/>
       <c r="D14" s="128"/>
@@ -24976,10 +28181,10 @@
       <c r="J14" s="145"/>
       <c r="K14" s="145"/>
     </row>
-    <row r="15" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="117"/>
     </row>
-    <row r="16" spans="1:12" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B16" s="118"/>
       <c r="C16" s="119"/>
       <c r="D16" s="119"/>
@@ -24987,13 +28192,13 @@
       <c r="F16" s="119"/>
       <c r="G16" s="120"/>
     </row>
-    <row r="17" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B17" s="124" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="95"/>
       <c r="D17" s="125" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E17" s="125"/>
       <c r="F17" s="125" t="s">
@@ -25003,45 +28208,45 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="2:10" s="116" customFormat="1" ht="72" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" s="116" customFormat="1" ht="72" x14ac:dyDescent="0.2">
       <c r="B18" s="124"/>
       <c r="C18" s="95"/>
       <c r="D18" s="90" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E18" s="90"/>
       <c r="F18" s="90" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G18" s="115" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" s="116" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="124"/>
       <c r="C19" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D19" s="114" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E19" s="114"/>
       <c r="F19" s="95"/>
       <c r="G19" s="126"/>
     </row>
-    <row r="20" spans="2:10" s="116" customFormat="1" ht="57" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" s="116" customFormat="1" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B20" s="124"/>
       <c r="C20" s="125" t="s">
+        <v>371</v>
+      </c>
+      <c r="D20" s="114" t="s">
         <v>372</v>
-      </c>
-      <c r="D20" s="114" t="s">
-        <v>373</v>
       </c>
       <c r="E20" s="114"/>
       <c r="F20" s="95"/>
       <c r="G20" s="126"/>
     </row>
-    <row r="21" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B21" s="124"/>
       <c r="C21" s="95"/>
       <c r="D21" s="95"/>
@@ -25049,7 +28254,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="126"/>
     </row>
-    <row r="22" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="127"/>
       <c r="C22" s="128"/>
       <c r="D22" s="128"/>
@@ -25057,13 +28262,13 @@
       <c r="F22" s="128"/>
       <c r="G22" s="129"/>
     </row>
-    <row r="23" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B23" s="117"/>
     </row>
-    <row r="24" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="117"/>
     </row>
-    <row r="25" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B25" s="118"/>
       <c r="C25" s="119"/>
       <c r="D25" s="119"/>
@@ -25074,12 +28279,12 @@
       <c r="I25" s="119"/>
       <c r="J25" s="120"/>
     </row>
-    <row r="26" spans="2:10" ht="79.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" ht="79.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="93" t="s">
         <v>0</v>
       </c>
       <c r="C26" s="70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D26" s="90"/>
       <c r="E26" s="131"/>
@@ -25089,13 +28294,13 @@
       <c r="I26" s="90"/>
       <c r="J26" s="122"/>
     </row>
-    <row r="27" spans="2:10" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" s="116" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B27" s="124"/>
       <c r="C27" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D27" s="114" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E27" s="95"/>
       <c r="F27" s="95"/>
@@ -25104,13 +28309,13 @@
       <c r="I27" s="95"/>
       <c r="J27" s="126"/>
     </row>
-    <row r="28" spans="2:10" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" s="116" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B28" s="124"/>
       <c r="C28" s="125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D28" s="114" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E28" s="95"/>
       <c r="F28" s="95"/>
@@ -25119,7 +28324,7 @@
       <c r="I28" s="95"/>
       <c r="J28" s="126"/>
     </row>
-    <row r="29" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="127"/>
       <c r="C29" s="128"/>
       <c r="D29" s="128"/>
@@ -25130,13 +28335,13 @@
       <c r="I29" s="128"/>
       <c r="J29" s="129"/>
     </row>
-    <row r="30" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B30" s="117"/>
     </row>
-    <row r="31" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="117"/>
     </row>
-    <row r="32" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B32" s="118"/>
       <c r="C32" s="119"/>
       <c r="D32" s="119"/>
@@ -25147,16 +28352,16 @@
       <c r="I32" s="119"/>
       <c r="J32" s="120"/>
     </row>
-    <row r="33" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D33" s="90"/>
       <c r="E33" s="136" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F33" s="90"/>
       <c r="G33" s="90"/>
@@ -25164,13 +28369,13 @@
       <c r="I33" s="90"/>
       <c r="J33" s="122"/>
     </row>
-    <row r="34" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B34" s="124"/>
       <c r="C34" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D34" s="114" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E34" s="95"/>
       <c r="F34" s="95"/>
@@ -25179,13 +28384,13 @@
       <c r="I34" s="95"/>
       <c r="J34" s="126"/>
     </row>
-    <row r="35" spans="2:10" s="116" customFormat="1" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" s="116" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B35" s="124"/>
       <c r="C35" s="125" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D35" s="114" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E35" s="95"/>
       <c r="F35" s="95"/>
@@ -25194,7 +28399,7 @@
       <c r="I35" s="95"/>
       <c r="J35" s="126"/>
     </row>
-    <row r="36" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B36" s="127"/>
       <c r="C36" s="128"/>
       <c r="D36" s="128"/>
@@ -25205,11 +28410,11 @@
       <c r="I36" s="128"/>
       <c r="J36" s="129"/>
     </row>
-    <row r="37" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B37" s="117"/>
     </row>
-    <row r="38" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B39" s="118"/>
       <c r="C39" s="119"/>
       <c r="D39" s="119"/>
@@ -25220,12 +28425,12 @@
       <c r="I39" s="119"/>
       <c r="J39" s="120"/>
     </row>
-    <row r="40" spans="2:10" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" ht="154.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D40"/>
       <c r="E40" s="136"/>
@@ -25235,13 +28440,13 @@
       <c r="I40" s="90"/>
       <c r="J40" s="122"/>
     </row>
-    <row r="41" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B41" s="124"/>
       <c r="C41" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D41" s="114" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E41" s="95"/>
       <c r="F41" s="95"/>
@@ -25250,13 +28455,13 @@
       <c r="I41" s="95"/>
       <c r="J41" s="126"/>
     </row>
-    <row r="42" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B42" s="124"/>
       <c r="C42" s="125" t="s">
+        <v>391</v>
+      </c>
+      <c r="D42" s="114" t="s">
         <v>392</v>
-      </c>
-      <c r="D42" s="114" t="s">
-        <v>393</v>
       </c>
       <c r="E42" s="95"/>
       <c r="F42" s="95"/>
@@ -25265,26 +28470,26 @@
       <c r="I42" s="95"/>
       <c r="J42" s="126"/>
     </row>
-    <row r="43" spans="2:10" s="116" customFormat="1" ht="97.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10" s="116" customFormat="1" ht="97.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="137"/>
       <c r="C43" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="D43" s="139" t="s">
         <v>396</v>
       </c>
-      <c r="D43" s="139" t="s">
+      <c r="E43" s="142" t="s">
         <v>397</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="F43" s="142" t="s">
         <v>398</v>
-      </c>
-      <c r="F43" s="142" t="s">
-        <v>399</v>
       </c>
       <c r="G43" s="140"/>
       <c r="H43" s="140"/>
       <c r="I43" s="140"/>
       <c r="J43" s="141"/>
     </row>
-    <row r="44" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="127"/>
       <c r="C44" s="128"/>
       <c r="D44" s="128"/>
@@ -25295,8 +28500,8 @@
       <c r="I44" s="128"/>
       <c r="J44" s="129"/>
     </row>
-    <row r="46" spans="2:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:10" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="2:10" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B47" s="118"/>
       <c r="C47" s="119"/>
       <c r="D47" s="119"/>
@@ -25307,12 +28512,12 @@
       <c r="I47" s="119"/>
       <c r="J47" s="120"/>
     </row>
-    <row r="48" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10" ht="129.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="93" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D48" s="90"/>
       <c r="E48" s="136"/>
@@ -25322,13 +28527,13 @@
       <c r="I48" s="90"/>
       <c r="J48" s="122"/>
     </row>
-    <row r="49" spans="2:10" s="116" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:10" s="116" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B49" s="124"/>
       <c r="C49" s="125" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D49" s="114" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E49" s="95"/>
       <c r="F49" s="95"/>
@@ -25337,13 +28542,13 @@
       <c r="I49" s="95"/>
       <c r="J49" s="126"/>
     </row>
-    <row r="50" spans="2:10" s="116" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:10" s="116" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="124"/>
       <c r="C50" s="125" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="114" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E50" s="95"/>
       <c r="F50" s="95"/>
@@ -25352,13 +28557,13 @@
       <c r="I50" s="95"/>
       <c r="J50" s="126"/>
     </row>
-    <row r="51" spans="2:10" s="116" customFormat="1" ht="34.200000000000003" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:10" s="116" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B51" s="137"/>
       <c r="C51" s="138" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D51" s="139" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E51" s="140"/>
       <c r="F51" s="140"/>
@@ -25367,7 +28572,7 @@
       <c r="I51" s="140"/>
       <c r="J51" s="141"/>
     </row>
-    <row r="52" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:10" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B52" s="127"/>
       <c r="C52" s="128"/>
       <c r="D52" s="128"/>
@@ -25394,15 +28599,15 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="11.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.21875" style="12"/>
-    <col min="2" max="2" width="16.5546875" style="12" customWidth="1"/>
-    <col min="3" max="4" width="36.5546875" style="12" customWidth="1"/>
-    <col min="5" max="16384" width="9.21875" style="12"/>
+    <col min="1" max="1" width="9.28515625" style="12"/>
+    <col min="2" max="2" width="16.5703125" style="12" customWidth="1"/>
+    <col min="3" max="4" width="36.5703125" style="12" customWidth="1"/>
+    <col min="5" max="16384" width="9.28515625" style="12"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B2" s="134" t="s">
         <v>197</v>
       </c>
@@ -25413,16 +28618,16 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="2:4" ht="57" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B3" s="132"/>
       <c r="C3" s="133" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="133" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="133" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="45.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B4" s="132"/>
       <c r="C4" s="133" t="s">
         <v>201</v>
@@ -25431,7 +28636,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B5" s="132"/>
       <c r="C5" s="133" t="s">
         <v>203</v>
@@ -25440,19 +28645,19 @@
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="45.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="132"/>
       <c r="C6" s="133"/>
       <c r="D6" s="133" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="132"/>
       <c r="C7" s="133"/>
       <c r="D7" s="133"/>
     </row>
-    <row r="10" spans="2:4" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="132" t="s">
         <v>199</v>
       </c>
@@ -25463,28 +28668,28 @@
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="132"/>
       <c r="C11" s="133"/>
       <c r="D11" s="133"/>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="132"/>
       <c r="C12" s="133"/>
       <c r="D12" s="133"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="132"/>
       <c r="C13" s="133"/>
       <c r="D13" s="133"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="132"/>
       <c r="C14" s="133"/>
       <c r="D14" s="133"/>
     </row>
-    <row r="15" spans="2:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="2:4" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:4" ht="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="2:4" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B18" s="132" t="s">
         <v>192</v>
       </c>
@@ -25495,42 +28700,42 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="132"/>
       <c r="C19" s="133"/>
       <c r="D19" s="133"/>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" s="132"/>
       <c r="C20" s="133"/>
       <c r="D20" s="133"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B21" s="132"/>
       <c r="C21" s="133"/>
       <c r="D21" s="133"/>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B22" s="132"/>
       <c r="C22" s="133"/>
       <c r="D22" s="133"/>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="132"/>
       <c r="C23" s="133"/>
       <c r="D23" s="133"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="132"/>
       <c r="C24" s="133"/>
       <c r="D24" s="133"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="132"/>
       <c r="C25" s="133"/>
       <c r="D25" s="133"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="132"/>
       <c r="C26" s="133"/>
       <c r="D26" s="133"/>
@@ -25549,16 +28754,16 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.77734375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="53.21875" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="5.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53.28515625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>286</v>
       </c>
@@ -25569,7 +28774,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>287</v>
       </c>
@@ -25580,7 +28785,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="7" t="s">
         <v>288</v>
       </c>
@@ -25591,7 +28796,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="7" t="s">
         <v>289</v>
       </c>
@@ -25602,7 +28807,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="2:4" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="7" t="s">
         <v>290</v>
       </c>
@@ -25613,22 +28818,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="2:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:4" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="2:4" ht="23.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>294</v>
       </c>
@@ -25639,7 +28844,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:4" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>295</v>
       </c>
@@ -25650,7 +28855,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:4" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>296</v>
       </c>
@@ -25675,25 +28880,25 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.21875" style="7" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="98.77734375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="9.21875" style="12"/>
-    <col min="5" max="5" width="53.21875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="47.44140625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="55.21875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="32.77734375" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9.21875" style="7"/>
+    <col min="1" max="1" width="3.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="98.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="12"/>
+    <col min="5" max="5" width="53.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="47.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="55.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="32.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.28515625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="2:8" ht="172.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="172.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>144</v>
       </c>
@@ -25701,7 +28906,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="2:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" s="12" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="12" t="s">
         <v>147</v>
       </c>
@@ -25719,7 +28924,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="4" spans="2:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>147</v>
       </c>
@@ -25739,7 +28944,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -25755,7 +28960,7 @@
       </c>
       <c r="H5" s="11"/>
     </row>
-    <row r="6" spans="2:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>11</v>
       </c>
@@ -25769,7 +28974,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="270" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>263</v>
       </c>
@@ -25794,17 +28999,17 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="409.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="409.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
-    <col min="2" max="2" width="170.5546875" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" customWidth="1"/>
-    <col min="5" max="5" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="157.5546875" customWidth="1"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="170.5703125" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="157.5703125" customWidth="1"/>
     <col min="7" max="7" width="46" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -25836,15 +29041,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>320040</xdr:colOff>
+                <xdr:colOff>323850</xdr:colOff>
                 <xdr:row>0</xdr:row>
-                <xdr:rowOff>182880</xdr:rowOff>
+                <xdr:rowOff>180975</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>8732520</xdr:colOff>
+                <xdr:colOff>8734425</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>1584960</xdr:rowOff>
+                <xdr:rowOff>1581150</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -25866,52 +29071,52 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:6" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:6" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B3" s="118"/>
       <c r="C3" s="119"/>
       <c r="D3" s="119"/>
       <c r="E3" s="120"/>
     </row>
-    <row r="4" spans="1:6" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" s="89" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A4" s="91"/>
       <c r="B4" s="92"/>
       <c r="E4" s="94"/>
       <c r="F4" s="143"/>
     </row>
-    <row r="5" spans="1:6" s="123" customFormat="1" ht="108" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" s="123" customFormat="1" ht="108" x14ac:dyDescent="0.2">
       <c r="A5" s="121"/>
       <c r="B5" s="93" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E5" s="115"/>
     </row>
-    <row r="6" spans="1:6" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B6" s="124"/>
       <c r="C6" s="95"/>
       <c r="E6" s="126"/>
     </row>
-    <row r="7" spans="1:6" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B7" s="124"/>
       <c r="C7" s="95"/>
       <c r="E7" s="126"/>
     </row>
-    <row r="8" spans="1:6" s="116" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" s="116" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="B8" s="137"/>
       <c r="C8" s="140"/>
       <c r="D8" s="140"/>
       <c r="E8" s="141"/>
     </row>
-    <row r="9" spans="1:6" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="116" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="127"/>
       <c r="C9" s="128"/>
       <c r="D9" s="128"/>
